--- a/medicine/Enfance/Michel_Gay/Michel_Gay.xlsx
+++ b/medicine/Enfance/Michel_Gay/Michel_Gay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Gay, né le 1er septembre 1947 à Lyon, est un illustrateur et auteur d'album pour enfants.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Gay commence à publier aux éditions l'École des loisirs à partir de 1980. Il crée généralement des albums avec des personnages de jeunes animaux, comme Biboundé le manchot. Il a aussi illustré des textes écrits par d'autres. Son personnage de Zou le petit zèbre inspire une série animée pour la télévision en 2011 : Zou.
 </t>
@@ -544,9 +558,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Album
-Auteur-illustrateur
-Le Loup-Noël, L'École des loisirs, 1980
+          <t>Album</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Auteur-illustrateur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Loup-Noël, L'École des loisirs, 1980
 Lapin-express, L'École des loisirs, 1982
 Pousse-poussette, L'École des loisirs, 1983
 Petit-avion, L'École des loisirs, 1983
@@ -575,9 +597,43 @@
 Zou à vélo, L'École des loisirs, 2005
 Cropetite, L'École des loisirs, 2006
 La Provision de bisous de Zou, L'École des loisirs, 2008
-Les Sous de Zou, L'École des loisirs, 2011
-Illustrateur
-Boris Moissard, Valentine au grand magasin, L'École des loisirs, 1980
+Les Sous de Zou, L'École des loisirs, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Gay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Gay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Boris Moissard, Valentine au grand magasin, L'École des loisirs, 1980
 Gérard Pussey, Les Citrouilles du diable, L'École des loisirs, 1981
 Jean-Loup Trassard, Trois Noëls en forêt, L'École des loisirs, 1981
 Irène Schwartz, Minie Malakoff, la souris du métro, L'École des loisirs, 1982
